--- a/Weaving_prod_format.xlsx
+++ b/Weaving_prod_format.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jashfaque\Desktop\dashboardSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EAE749-0E61-43F1-851E-86AAA05C28F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31031AC7-3D20-4A69-95AD-4718D3EC9AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -322,6 +322,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -334,19 +360,11 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -354,30 +372,12 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -662,8 +662,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="W80" sqref="W80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -720,14 +720,14 @@
       <c r="L2" s="8"/>
       <c r="M2" s="2"/>
       <c r="N2" s="7"/>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="11">
-        <v>8</v>
-      </c>
-      <c r="R2" s="12"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="23">
+        <v>8</v>
+      </c>
+      <c r="R2" s="24"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
@@ -744,17 +744,17 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="7"/>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="15">
+      <c r="P3" s="10"/>
+      <c r="Q3" s="25">
         <v>0</v>
       </c>
-      <c r="R3" s="16"/>
+      <c r="R3" s="26"/>
     </row>
     <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -764,87 +764,87 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="19">
-        <v>45358</v>
-      </c>
-      <c r="M4" s="20"/>
+      <c r="L4" s="27">
+        <v>45358</v>
+      </c>
+      <c r="M4" s="28"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="21" t="s">
+      <c r="O4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="23">
-        <v>8</v>
-      </c>
-      <c r="R4" s="24"/>
-    </row>
-    <row r="6" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="P4" s="14"/>
+      <c r="Q4" s="29">
+        <v>8</v>
+      </c>
+      <c r="R4" s="30"/>
+    </row>
+    <row r="6" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="25" t="s">
+      <c r="B6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="27" t="s">
+      <c r="K6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="28" t="s">
+      <c r="L6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="28" t="s">
+      <c r="M6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="28" t="s">
+      <c r="N6" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="25" t="s">
+      <c r="O6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="25" t="s">
+      <c r="P6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="25" t="s">
+      <c r="Q6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="R6" s="25" t="s">
+      <c r="R6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="S6" s="25" t="s">
+      <c r="S6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="T6" s="25" t="s">
+      <c r="T6" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="29">
+      <c r="A7" s="19">
         <v>45358</v>
       </c>
       <c r="C7" t="s">
@@ -892,7 +892,7 @@
       <c r="Q7">
         <v>0.7239130434782608</v>
       </c>
-      <c r="R7" s="30">
+      <c r="R7" s="20">
         <v>0.44801859099804303</v>
       </c>
       <c r="S7">
@@ -900,7 +900,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="29">
+      <c r="A8" s="19">
         <v>45358</v>
       </c>
       <c r="C8" t="s">
@@ -948,7 +948,7 @@
       <c r="Q8">
         <v>0.42228260869565215</v>
       </c>
-      <c r="R8" s="30">
+      <c r="R8" s="20">
         <v>0.45616438356164385</v>
       </c>
       <c r="S8">
@@ -956,7 +956,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="29">
+      <c r="A9" s="19">
         <v>45358</v>
       </c>
       <c r="C9" t="s">
@@ -1004,7 +1004,7 @@
       <c r="Q9">
         <v>0.44598214285714288</v>
       </c>
-      <c r="R9" s="30">
+      <c r="R9" s="20">
         <v>0.43434782608695649</v>
       </c>
       <c r="S9">
@@ -1012,7 +1012,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="29">
+      <c r="A10" s="19">
         <v>45358</v>
       </c>
       <c r="C10" t="s">
@@ -1060,7 +1060,7 @@
       <c r="Q10">
         <v>0.45616438356164385</v>
       </c>
-      <c r="R10" s="30">
+      <c r="R10" s="20">
         <v>0.7239130434782608</v>
       </c>
       <c r="S10">
@@ -1068,7 +1068,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="29">
+      <c r="A11" s="19">
         <v>45358</v>
       </c>
       <c r="C11" t="s">
@@ -1116,7 +1116,7 @@
       <c r="Q11">
         <v>0.43434782608695649</v>
       </c>
-      <c r="R11" s="30">
+      <c r="R11" s="20">
         <v>0.40500000000000003</v>
       </c>
       <c r="S11">
@@ -1124,7 +1124,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="29">
+      <c r="A12" s="19">
         <v>45358</v>
       </c>
       <c r="C12" t="s">
@@ -1172,7 +1172,7 @@
       <c r="Q12">
         <v>0.44801859099804303</v>
       </c>
-      <c r="R12" s="30">
+      <c r="R12" s="20">
         <v>0.41366459627329188</v>
       </c>
       <c r="S12">
@@ -1180,7 +1180,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="29">
+      <c r="A13" s="19">
         <v>45358</v>
       </c>
       <c r="C13" t="s">
@@ -1228,7 +1228,7 @@
       <c r="Q13">
         <v>0.40500000000000003</v>
       </c>
-      <c r="R13" s="30">
+      <c r="R13" s="20">
         <v>0.42228260869565215</v>
       </c>
       <c r="S13">
@@ -1236,7 +1236,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="29">
+      <c r="A14" s="19">
         <v>45358</v>
       </c>
       <c r="C14" t="s">
@@ -1284,15 +1284,15 @@
       <c r="Q14">
         <v>0.41366459627329188</v>
       </c>
-      <c r="R14" s="30">
+      <c r="R14" s="20">
         <v>0.44598214285714288</v>
       </c>
       <c r="S14">
         <v>13.252647062635271</v>
       </c>
     </row>
-    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="19">
         <v>45358</v>
       </c>
       <c r="C15" t="s">
@@ -1340,7 +1340,7 @@
       <c r="Q15">
         <v>4.6172145110728077E-2</v>
       </c>
-      <c r="R15" s="30">
+      <c r="R15" s="20">
         <v>0.84375</v>
       </c>
       <c r="S15">
@@ -1350,8 +1350,8 @@
         <v>38.957747437176813</v>
       </c>
     </row>
-    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="29">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="19">
         <v>45358</v>
       </c>
       <c r="C16" t="s">
@@ -1399,7 +1399,7 @@
       <c r="Q16">
         <v>0.19222307901660166</v>
       </c>
-      <c r="R16" s="30">
+      <c r="R16" s="20">
         <v>0.72391304347826091</v>
       </c>
       <c r="S16">
@@ -1409,8 +1409,8 @@
         <v>23.192132359611723</v>
       </c>
     </row>
-    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="19">
         <v>45358</v>
       </c>
       <c r="C17" t="s">
@@ -1458,7 +1458,7 @@
       <c r="Q17">
         <v>0.3435871460683218</v>
       </c>
-      <c r="R17" s="30">
+      <c r="R17" s="20">
         <v>0.67500000000000004</v>
       </c>
       <c r="S17">
@@ -1468,8 +1468,8 @@
         <v>23.192132359611723</v>
       </c>
     </row>
-    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="19">
         <v>45358</v>
       </c>
       <c r="C18" t="s">
@@ -1517,7 +1517,7 @@
       <c r="Q18">
         <v>0.17208508930363237</v>
       </c>
-      <c r="R18" s="30">
+      <c r="R18" s="20">
         <v>0.6272260273972603</v>
       </c>
       <c r="S18">
@@ -1527,8 +1527,8 @@
         <v>21.587249387644018</v>
       </c>
     </row>
-    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="19">
         <v>45358</v>
       </c>
       <c r="C19" t="s">
@@ -1576,7 +1576,7 @@
       <c r="Q19">
         <v>7.8662795972058414E-2</v>
       </c>
-      <c r="R19" s="30">
+      <c r="R19" s="20">
         <v>0.60326086956521752</v>
       </c>
       <c r="S19">
@@ -1586,8 +1586,8 @@
         <v>23.727093350267626</v>
       </c>
     </row>
-    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="19">
         <v>45358</v>
       </c>
       <c r="C20" t="s">
@@ -1635,7 +1635,7 @@
       <c r="Q20">
         <v>0.2339955849889625</v>
       </c>
-      <c r="R20" s="30">
+      <c r="R20" s="20">
         <v>0.5702054794520548</v>
       </c>
       <c r="S20">
@@ -1646,7 +1646,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29">
+      <c r="A21" s="19">
         <v>45358</v>
       </c>
       <c r="C21" t="s">
@@ -1694,7 +1694,7 @@
       <c r="Q21">
         <v>0.5586727751065953</v>
       </c>
-      <c r="R21" s="30">
+      <c r="R21" s="20">
         <v>0.65942028985507251</v>
       </c>
       <c r="S21">
@@ -1705,7 +1705,7 @@
       </c>
     </row>
     <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29">
+      <c r="A22" s="19">
         <v>45358</v>
       </c>
       <c r="C22" t="s">
@@ -1753,7 +1753,7 @@
       <c r="Q22">
         <v>0.24829901115848679</v>
       </c>
-      <c r="R22" s="30">
+      <c r="R22" s="20">
         <v>0.57065217391304346</v>
       </c>
       <c r="S22">
@@ -1764,7 +1764,7 @@
       </c>
     </row>
     <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29">
+      <c r="A23" s="19">
         <v>45358</v>
       </c>
       <c r="C23" t="s">
@@ -1812,7 +1812,7 @@
       <c r="Q23">
         <v>1.370208881429738</v>
       </c>
-      <c r="R23" s="30">
+      <c r="R23" s="20">
         <v>0.57665903890160186</v>
       </c>
       <c r="S23">
@@ -1823,7 +1823,7 @@
       </c>
     </row>
     <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29">
+      <c r="A24" s="19">
         <v>45358</v>
       </c>
       <c r="C24" t="s">
@@ -1871,7 +1871,7 @@
       <c r="Q24">
         <v>0.28846502766941851</v>
       </c>
-      <c r="R24" s="30">
+      <c r="R24" s="20">
         <v>0.57065217391304346</v>
       </c>
       <c r="S24">
@@ -1882,7 +1882,7 @@
       </c>
     </row>
     <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29">
+      <c r="A25" s="19">
         <v>45358</v>
       </c>
       <c r="C25" t="s">
@@ -1930,7 +1930,7 @@
       <c r="Q25">
         <v>9.2851310895400538E-2</v>
       </c>
-      <c r="R25" s="30">
+      <c r="R25" s="20">
         <v>0.79891304347826098</v>
       </c>
       <c r="S25">
@@ -1941,7 +1941,7 @@
       </c>
     </row>
     <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="29">
+      <c r="A26" s="19">
         <v>45358</v>
       </c>
       <c r="C26" t="s">
@@ -1989,7 +1989,7 @@
       <c r="Q26">
         <v>2.1778421633554088</v>
       </c>
-      <c r="R26" s="30">
+      <c r="R26" s="20">
         <v>0.50660024906600232</v>
       </c>
       <c r="S26">
@@ -2000,7 +2000,7 @@
       </c>
     </row>
     <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29">
+      <c r="A27" s="19">
         <v>45358</v>
       </c>
       <c r="C27" t="s">
@@ -2048,7 +2048,7 @@
       <c r="Q27">
         <v>0.93568561190238597</v>
       </c>
-      <c r="R27" s="30">
+      <c r="R27" s="20">
         <v>0.49130434782608695</v>
       </c>
       <c r="S27">
@@ -2059,7 +2059,7 @@
       </c>
     </row>
     <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="29">
+      <c r="A28" s="19">
         <v>45358</v>
       </c>
       <c r="C28" t="s">
@@ -2107,7 +2107,7 @@
       <c r="Q28">
         <v>0.47084221627506134</v>
       </c>
-      <c r="R28" s="30">
+      <c r="R28" s="20">
         <v>0.4913043478260869</v>
       </c>
       <c r="S28">
@@ -2118,7 +2118,7 @@
       </c>
     </row>
     <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29">
+      <c r="A29" s="19">
         <v>45358</v>
       </c>
       <c r="C29" t="s">
@@ -2166,7 +2166,7 @@
       <c r="Q29">
         <v>1.7740153098279887</v>
       </c>
-      <c r="R29" s="30">
+      <c r="R29" s="20">
         <v>0.87228860294117649</v>
       </c>
       <c r="S29">
@@ -2176,8 +2176,8 @@
         <v>773.72666810305736</v>
       </c>
     </row>
-    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="29">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="19">
         <v>45358</v>
       </c>
       <c r="C30" t="s">
@@ -2225,7 +2225,7 @@
       <c r="Q30">
         <v>0.34232400435453147</v>
       </c>
-      <c r="R30" s="30">
+      <c r="R30" s="20">
         <v>0.56304347826086953</v>
       </c>
       <c r="S30">
@@ -2235,8 +2235,8 @@
         <v>32.123883017327408</v>
       </c>
     </row>
-    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="29">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="19">
         <v>45358</v>
       </c>
       <c r="C31" t="s">
@@ -2284,7 +2284,7 @@
       <c r="Q31">
         <v>8.4362998578729323E-2</v>
       </c>
-      <c r="R31" s="30">
+      <c r="R31" s="20">
         <v>0.56250000000000011</v>
       </c>
       <c r="S31">
@@ -2294,8 +2294,8 @@
         <v>23.727093350267626</v>
       </c>
     </row>
-    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="29">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="19">
         <v>45358</v>
       </c>
       <c r="C32" t="s">
@@ -2343,7 +2343,7 @@
       <c r="Q32">
         <v>0.19518692321014741</v>
       </c>
-      <c r="R32" s="30">
+      <c r="R32" s="20">
         <v>0.55298913043478259</v>
       </c>
       <c r="S32">
@@ -2353,8 +2353,8 @@
         <v>17.989374489703348</v>
       </c>
     </row>
-    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="29">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A33" s="19">
         <v>45358</v>
       </c>
       <c r="C33" t="s">
@@ -2402,7 +2402,7 @@
       <c r="Q33">
         <v>0.14744927273277089</v>
       </c>
-      <c r="R33" s="30">
+      <c r="R33" s="20">
         <v>0.54293478260869565</v>
       </c>
       <c r="S33">
@@ -2412,8 +2412,8 @@
         <v>20.013834709244311</v>
       </c>
     </row>
-    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="29">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A34" s="19">
         <v>45358</v>
       </c>
       <c r="C34" t="s">
@@ -2461,7 +2461,7 @@
       <c r="Q34">
         <v>0.56221990383743081</v>
       </c>
-      <c r="R34" s="30">
+      <c r="R34" s="20">
         <v>0.48260869565217385</v>
       </c>
       <c r="S34">
@@ -2472,7 +2472,7 @@
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A35" s="29">
+      <c r="A35" s="19">
         <v>45358</v>
       </c>
       <c r="C35" t="s">
@@ -2520,7 +2520,7 @@
       <c r="Q35">
         <v>0.29764583144334572</v>
       </c>
-      <c r="R35" s="30">
+      <c r="R35" s="20">
         <v>0.46920289855072472</v>
       </c>
       <c r="S35">
@@ -2530,8 +2530,8 @@
         <v>15.517365206084252</v>
       </c>
     </row>
-    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="29">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A36" s="19">
         <v>45358</v>
       </c>
       <c r="C36" t="s">
@@ -2579,7 +2579,7 @@
       <c r="Q36">
         <v>0.41303411049623517</v>
       </c>
-      <c r="R36" s="30">
+      <c r="R36" s="20">
         <v>0.46901408450704224</v>
       </c>
       <c r="S36">
@@ -2590,7 +2590,7 @@
       </c>
     </row>
     <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="29">
+      <c r="A37" s="19">
         <v>45358</v>
       </c>
       <c r="C37" t="s">
@@ -2638,7 +2638,7 @@
       <c r="Q37">
         <v>0.65281557752981134</v>
       </c>
-      <c r="R37" s="30">
+      <c r="R37" s="20">
         <v>0.49736842105263163</v>
       </c>
       <c r="S37">
@@ -2649,7 +2649,7 @@
       </c>
     </row>
     <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="29">
+      <c r="A38" s="19">
         <v>45358</v>
       </c>
       <c r="C38" t="s">
@@ -2697,7 +2697,7 @@
       <c r="Q38">
         <v>0.41866180630582345</v>
       </c>
-      <c r="R38" s="30">
+      <c r="R38" s="20">
         <v>0.41249999999999998</v>
       </c>
       <c r="S38">
@@ -2708,7 +2708,7 @@
       </c>
     </row>
     <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="29">
+      <c r="A39" s="19">
         <v>45358</v>
       </c>
       <c r="C39" t="s">
@@ -2756,7 +2756,7 @@
       <c r="Q39">
         <v>3.7342375034019777E-2</v>
       </c>
-      <c r="R39" s="30">
+      <c r="R39" s="20">
         <v>0.45000000000000007</v>
       </c>
       <c r="S39">
@@ -2767,7 +2767,7 @@
       </c>
     </row>
     <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="29">
+      <c r="A40" s="19">
         <v>45358</v>
       </c>
       <c r="C40" t="s">
@@ -2815,7 +2815,7 @@
       <c r="Q40">
         <v>0.23720100396141403</v>
       </c>
-      <c r="R40" s="30">
+      <c r="R40" s="20">
         <v>0.45</v>
       </c>
       <c r="S40">
@@ -2826,7 +2826,7 @@
       </c>
     </row>
     <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="29">
+      <c r="A41" s="19">
         <v>45358</v>
       </c>
       <c r="C41" t="s">
@@ -2874,7 +2874,7 @@
       <c r="Q41">
         <v>0.33176086364873453</v>
       </c>
-      <c r="R41" s="30">
+      <c r="R41" s="20">
         <v>0.4826086956521739</v>
       </c>
       <c r="S41">
@@ -2885,7 +2885,7 @@
       </c>
     </row>
     <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="29">
+      <c r="A42" s="19">
         <v>45358</v>
       </c>
       <c r="C42" t="s">
@@ -2933,7 +2933,7 @@
       <c r="Q42">
         <v>9.7160482627233966E-2</v>
       </c>
-      <c r="R42" s="30">
+      <c r="R42" s="20">
         <v>0.44598214285714288</v>
       </c>
       <c r="S42">
@@ -2944,7 +2944,7 @@
       </c>
     </row>
     <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="29">
+      <c r="A43" s="19">
         <v>45358</v>
       </c>
       <c r="C43" t="s">
@@ -2992,7 +2992,7 @@
       <c r="Q43">
         <v>0.45643200580604198</v>
       </c>
-      <c r="R43" s="30">
+      <c r="R43" s="20">
         <v>0.54293478260869554</v>
       </c>
       <c r="S43">
@@ -3003,7 +3003,7 @@
       </c>
     </row>
     <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="29">
+      <c r="A44" s="19">
         <v>45358</v>
       </c>
       <c r="C44" t="s">
@@ -3051,7 +3051,7 @@
       <c r="Q44">
         <v>4.3774002842541355E-2</v>
       </c>
-      <c r="R44" s="30">
+      <c r="R44" s="20">
         <v>0.7239130434782608</v>
       </c>
       <c r="S44">
@@ -3062,7 +3062,7 @@
       </c>
     </row>
     <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="29">
+      <c r="A45" s="19">
         <v>45358</v>
       </c>
       <c r="C45" t="s">
@@ -3110,7 +3110,7 @@
       <c r="Q45">
         <v>1.1173455502131906</v>
       </c>
-      <c r="R45" s="30">
+      <c r="R45" s="20">
         <v>0.63405797101449279</v>
       </c>
       <c r="S45">
@@ -3121,7 +3121,7 @@
       </c>
     </row>
     <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="29">
+      <c r="A46" s="19">
         <v>45358</v>
       </c>
       <c r="C46" t="s">
@@ -3169,7 +3169,7 @@
       <c r="Q46">
         <v>0.86539508300825563</v>
       </c>
-      <c r="R46" s="30">
+      <c r="R46" s="20">
         <v>0.64673913043478259</v>
       </c>
       <c r="S46">
@@ -3180,7 +3180,7 @@
       </c>
     </row>
     <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="29">
+      <c r="A47" s="19">
         <v>45358</v>
       </c>
       <c r="C47" t="s">
@@ -3228,7 +3228,7 @@
       <c r="Q47">
         <v>0.43269754150412781</v>
       </c>
-      <c r="R47" s="30">
+      <c r="R47" s="20">
         <v>0.60869565217391297</v>
       </c>
       <c r="S47">
@@ -3239,7 +3239,7 @@
       </c>
     </row>
     <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="29">
+      <c r="A48" s="19">
         <v>45358</v>
       </c>
       <c r="C48" t="s">
@@ -3287,7 +3287,7 @@
       <c r="Q48">
         <v>9.3894584051528632E-2</v>
       </c>
-      <c r="R48" s="30">
+      <c r="R48" s="20">
         <v>0.39945652173913043</v>
       </c>
       <c r="S48">
@@ -3298,7 +3298,7 @@
       </c>
     </row>
     <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="29">
+      <c r="A49" s="19">
         <v>45358</v>
       </c>
       <c r="C49" t="s">
@@ -3346,7 +3346,7 @@
       <c r="Q49">
         <v>0</v>
       </c>
-      <c r="R49" s="30" t="e">
+      <c r="R49" s="20" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="S49" t="e">
@@ -3357,7 +3357,7 @@
       </c>
     </row>
     <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="29">
+      <c r="A50" s="19">
         <v>45358</v>
       </c>
       <c r="C50" t="s">
@@ -3405,7 +3405,7 @@
       <c r="Q50">
         <v>2.3758278145695368</v>
       </c>
-      <c r="R50" s="30">
+      <c r="R50" s="20">
         <v>0.41438356164383555</v>
       </c>
       <c r="S50">
@@ -3416,7 +3416,7 @@
       </c>
     </row>
     <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="29">
+      <c r="A51" s="19">
         <v>45358</v>
       </c>
       <c r="C51" t="s">
@@ -3464,7 +3464,7 @@
       <c r="Q51">
         <v>1.0292541730926246</v>
       </c>
-      <c r="R51" s="30">
+      <c r="R51" s="20">
         <v>0.47826086956521735</v>
       </c>
       <c r="S51">
@@ -3475,7 +3475,7 @@
       </c>
     </row>
     <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="29">
+      <c r="A52" s="19">
         <v>45358</v>
       </c>
       <c r="C52" t="s">
@@ -3523,7 +3523,7 @@
       <c r="Q52">
         <v>0.47084221627506134</v>
       </c>
-      <c r="R52" s="30">
+      <c r="R52" s="20">
         <v>0.63768115942028969</v>
       </c>
       <c r="S52">
@@ -3534,7 +3534,7 @@
       </c>
     </row>
     <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="29">
+      <c r="A53" s="19">
         <v>45358</v>
       </c>
       <c r="C53" t="s">
@@ -3582,7 +3582,7 @@
       <c r="Q53">
         <v>1.7740153098279887</v>
       </c>
-      <c r="R53" s="30">
+      <c r="R53" s="20">
         <v>0.87228860294117649</v>
       </c>
       <c r="S53">
@@ -3593,7 +3593,7 @@
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A54" s="29">
+      <c r="A54" s="19">
         <v>45358</v>
       </c>
       <c r="C54" t="s">
@@ -3641,7 +3641,7 @@
       <c r="Q54">
         <v>0.45892678944026133</v>
       </c>
-      <c r="R54" s="30">
+      <c r="R54" s="20">
         <v>0.46901408450704218</v>
       </c>
       <c r="S54">
@@ -3651,8 +3651,8 @@
         <v>21.524312800508028</v>
       </c>
     </row>
-    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="29">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A55" s="19">
         <v>45358</v>
       </c>
       <c r="C55" t="s">
@@ -3700,7 +3700,7 @@
       <c r="Q55">
         <v>0.56221990383743081</v>
       </c>
-      <c r="R55" s="30">
+      <c r="R55" s="20">
         <v>0.46131713554987214</v>
       </c>
       <c r="S55">
@@ -3710,8 +3710,8 @@
         <v>15.256569152200477</v>
       </c>
     </row>
-    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="29">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A56" s="19">
         <v>45358</v>
       </c>
       <c r="C56" t="s">
@@ -3759,7 +3759,7 @@
       <c r="Q56">
         <v>0.89199854848952198</v>
       </c>
-      <c r="R56" s="30">
+      <c r="R56" s="20">
         <v>0.45847826086956522</v>
       </c>
       <c r="S56">
@@ -3770,7 +3770,7 @@
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A57" s="29">
+      <c r="A57" s="19">
         <v>45358</v>
       </c>
       <c r="C57" t="s">
@@ -3818,7 +3818,7 @@
       <c r="Q57">
         <v>0.13228703619704255</v>
       </c>
-      <c r="R57" s="30">
+      <c r="R57" s="20">
         <v>0.45244565217391303</v>
       </c>
       <c r="S57">
@@ -3828,8 +3828,8 @@
         <v>14.963173591581238</v>
       </c>
     </row>
-    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="29">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A58" s="19">
         <v>45358</v>
       </c>
       <c r="C58" t="s">
@@ -3877,7 +3877,7 @@
       <c r="Q58">
         <v>3.7342375034019777E-2</v>
       </c>
-      <c r="R58" s="30">
+      <c r="R58" s="20">
         <v>0.45000000000000007</v>
       </c>
       <c r="S58">
@@ -3888,7 +3888,7 @@
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A59" s="29">
+      <c r="A59" s="19">
         <v>45358</v>
       </c>
       <c r="C59" t="s">
@@ -3936,7 +3936,7 @@
       <c r="Q59">
         <v>0.28699083734010705</v>
       </c>
-      <c r="R59" s="30">
+      <c r="R59" s="20">
         <v>0.45</v>
       </c>
       <c r="S59">
@@ -3946,8 +3946,8 @@
         <v>21.524312800508028</v>
       </c>
     </row>
-    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="29">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A60" s="19">
         <v>45358</v>
       </c>
       <c r="C60" t="s">
@@ -3995,7 +3995,7 @@
       <c r="Q60">
         <v>0.56221990383743081</v>
       </c>
-      <c r="R60" s="30">
+      <c r="R60" s="20">
         <v>0.45</v>
       </c>
       <c r="S60">
@@ -4005,8 +4005,8 @@
         <v>21.524312800508028</v>
       </c>
     </row>
-    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="29">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A61" s="19">
         <v>45358</v>
       </c>
       <c r="C61" t="s">
@@ -4054,7 +4054,7 @@
       <c r="Q61">
         <v>0.14349541867005353</v>
       </c>
-      <c r="R61" s="30">
+      <c r="R61" s="20">
         <v>0.45</v>
       </c>
       <c r="S61">
@@ -4064,8 +4064,8 @@
         <v>21.524312800508028</v>
       </c>
     </row>
-    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="29">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A62" s="19">
         <v>45358</v>
       </c>
       <c r="C62" t="s">
@@ -4113,7 +4113,7 @@
       <c r="Q62">
         <v>9.7160482627233966E-2</v>
       </c>
-      <c r="R62" s="30">
+      <c r="R62" s="20">
         <v>0.44598214285714288</v>
       </c>
       <c r="S62">
@@ -4124,7 +4124,7 @@
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A63" s="29">
+      <c r="A63" s="19">
         <v>45358</v>
       </c>
       <c r="C63" t="s">
@@ -4172,7 +4172,7 @@
       <c r="Q63">
         <v>1.0257983307629501</v>
       </c>
-      <c r="R63" s="30">
+      <c r="R63" s="20">
         <v>0.44064272211720229</v>
       </c>
       <c r="S63">
@@ -4182,8 +4182,8 @@
         <v>19.652633426550807</v>
       </c>
     </row>
-    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="29">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A64" s="19">
         <v>45358</v>
       </c>
       <c r="C64" t="s">
@@ -4231,7 +4231,7 @@
       <c r="Q64">
         <v>0.36378934954186698</v>
       </c>
-      <c r="R64" s="30">
+      <c r="R64" s="20">
         <v>0.43873517786561272</v>
       </c>
       <c r="S64">
@@ -4241,8 +4241,8 @@
         <v>14.509744088806052</v>
       </c>
     </row>
-    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="29">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A65" s="19">
         <v>45358</v>
       </c>
       <c r="C65" t="s">
@@ -4290,7 +4290,7 @@
       <c r="Q65">
         <v>0.33071759049260635</v>
       </c>
-      <c r="R65" s="30">
+      <c r="R65" s="20">
         <v>0.42228260869565226</v>
       </c>
       <c r="S65">
@@ -4300,8 +4300,8 @@
         <v>13.965628685475826</v>
       </c>
     </row>
-    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="29">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A66" s="19">
         <v>45358</v>
       </c>
       <c r="C66" t="s">
@@ -4349,7 +4349,7 @@
       <c r="Q66">
         <v>0.52914814478817018</v>
       </c>
-      <c r="R66" s="30">
+      <c r="R66" s="20">
         <v>0.41474184782608692</v>
       </c>
       <c r="S66">
@@ -4359,8 +4359,8 @@
         <v>13.716242458949468</v>
       </c>
     </row>
-    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="29">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A67" s="19">
         <v>45358</v>
       </c>
       <c r="C67" t="s">
@@ -4408,7 +4408,7 @@
       <c r="Q67">
         <v>0.56221990383743081</v>
       </c>
-      <c r="R67" s="30">
+      <c r="R67" s="20">
         <v>0.41366459627329188</v>
       </c>
       <c r="S67">
@@ -4419,7 +4419,7 @@
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A68" s="29">
+      <c r="A68" s="19">
         <v>45358</v>
       </c>
       <c r="C68" t="s">
@@ -4467,7 +4467,7 @@
       <c r="Q68">
         <v>0.11799419395808762</v>
       </c>
-      <c r="R68" s="30">
+      <c r="R68" s="20">
         <v>0.40217391304347838</v>
       </c>
       <c r="S68">
@@ -4477,8 +4477,8 @@
         <v>15.818062233511752</v>
       </c>
     </row>
-    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="29">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A69" s="19">
         <v>45358</v>
       </c>
       <c r="C69" t="s">
@@ -4526,7 +4526,7 @@
       <c r="Q69">
         <v>0.56221990383743081</v>
       </c>
-      <c r="R69" s="30">
+      <c r="R69" s="20">
         <v>0.40217391304347838</v>
       </c>
       <c r="S69">
@@ -4536,8 +4536,8 @@
         <v>15.818062233511752</v>
       </c>
     </row>
-    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="29">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A70" s="19">
         <v>45358</v>
       </c>
       <c r="C70" t="s">
@@ -4585,7 +4585,7 @@
       <c r="Q70">
         <v>0.56221990383743081</v>
       </c>
-      <c r="R70" s="30">
+      <c r="R70" s="20">
         <v>0.38013698630136994</v>
       </c>
       <c r="S70">
@@ -4596,7 +4596,7 @@
       </c>
     </row>
     <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="29">
+      <c r="A71" s="19">
         <v>45358</v>
       </c>
       <c r="C71" t="s">
@@ -4644,7 +4644,7 @@
       <c r="Q71">
         <v>0.68282228068583861</v>
       </c>
-      <c r="R71" s="30">
+      <c r="R71" s="20">
         <v>0.70553359683794481</v>
       </c>
       <c r="S71">
@@ -4655,7 +4655,7 @@
       </c>
     </row>
     <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="29">
+      <c r="A72" s="19">
         <v>45358</v>
       </c>
       <c r="C72" t="s">
@@ -4703,7 +4703,7 @@
       <c r="Q72">
         <v>0.24829901115848679</v>
       </c>
-      <c r="R72" s="30">
+      <c r="R72" s="20">
         <v>0.57065217391304346</v>
       </c>
       <c r="S72">
@@ -4714,7 +4714,7 @@
       </c>
     </row>
     <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="29">
+      <c r="A73" s="19">
         <v>45358</v>
       </c>
       <c r="C73" t="s">
@@ -4762,7 +4762,7 @@
       <c r="Q73">
         <v>0.93751133992561031</v>
       </c>
-      <c r="R73" s="30">
+      <c r="R73" s="20">
         <v>0.70234113712374568</v>
       </c>
       <c r="S73">
@@ -4773,7 +4773,7 @@
       </c>
     </row>
     <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="29">
+      <c r="A74" s="19">
         <v>45358</v>
       </c>
       <c r="C74" t="s">
@@ -4821,7 +4821,7 @@
       <c r="Q74">
         <v>0.50481379842148244</v>
       </c>
-      <c r="R74" s="30">
+      <c r="R74" s="20">
         <v>0.65217391304347816</v>
       </c>
       <c r="S74">
@@ -4832,7 +4832,7 @@
       </c>
     </row>
     <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="29">
+      <c r="A75" s="19">
         <v>45358</v>
       </c>
       <c r="C75" t="s">
@@ -4880,7 +4880,7 @@
       <c r="Q75">
         <v>9.2851310895400538E-2</v>
       </c>
-      <c r="R75" s="30">
+      <c r="R75" s="20">
         <v>0.39945652173913049</v>
       </c>
       <c r="S75">
@@ -4891,7 +4891,7 @@
       </c>
     </row>
     <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="29">
+      <c r="A76" s="19">
         <v>45358</v>
       </c>
       <c r="C76" t="s">
@@ -4939,7 +4939,7 @@
       <c r="Q76">
         <v>2.2768349889624728</v>
       </c>
-      <c r="R76" s="30">
+      <c r="R76" s="20">
         <v>0.4643835616438356</v>
       </c>
       <c r="S76">
@@ -4950,7 +4950,7 @@
       </c>
     </row>
     <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="29">
+      <c r="A77" s="19">
         <v>45358</v>
       </c>
       <c r="C77" t="s">
@@ -4998,7 +4998,7 @@
       <c r="Q77">
         <v>0.56141136714143158</v>
       </c>
-      <c r="R77" s="30">
+      <c r="R77" s="20">
         <v>0.4913043478260869</v>
       </c>
       <c r="S77">
@@ -5009,7 +5009,7 @@
       </c>
     </row>
     <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="29">
+      <c r="A78" s="19">
         <v>45358</v>
       </c>
       <c r="C78" t="s">
@@ -5057,7 +5057,7 @@
       <c r="Q78">
         <v>0.47084221627506134</v>
       </c>
-      <c r="R78" s="30">
+      <c r="R78" s="20">
         <v>0.4913043478260869</v>
       </c>
       <c r="S78">
@@ -5068,7 +5068,7 @@
       </c>
     </row>
     <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="29">
+      <c r="A79" s="19">
         <v>45358</v>
       </c>
       <c r="C79" t="s">
@@ -5116,7 +5116,7 @@
       <c r="Q79">
         <v>1.7740153098279887</v>
       </c>
-      <c r="R79" s="30">
+      <c r="R79" s="20">
         <v>0.89586397058823541</v>
       </c>
       <c r="S79">
@@ -5128,11 +5128,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A6:T79" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="A"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="4">
       <filters>
         <filter val="F. B. HESSIAN"/>

--- a/Weaving_prod_format.xlsx
+++ b/Weaving_prod_format.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jashfaque\Desktop\dashboardSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31031AC7-3D20-4A69-95AD-4718D3EC9AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8966E938-8F74-40E7-9E85-8B1D197302E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$6:$T$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$6:$R$79</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="34">
   <si>
     <t>R/B Shift</t>
   </si>
@@ -99,15 +99,6 @@
     <t>Efficiency</t>
   </si>
   <si>
-    <t>Loom/Hour (lb)</t>
-  </si>
-  <si>
-    <t>Loom/24 Hour (KG)</t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
     <t>F. B. HESSIAN</t>
   </si>
   <si>
@@ -136,6 +127,9 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>Product Type</t>
   </si>
 </sst>
 </file>
@@ -336,18 +330,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -659,27 +655,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:T79"/>
+  <dimension ref="A1:R79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.33203125" customWidth="1"/>
     <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -703,7 +696,7 @@
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -729,7 +722,7 @@
       </c>
       <c r="R2" s="24"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -753,7 +746,7 @@
       </c>
       <c r="R3" s="26"/>
     </row>
-    <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -781,80 +774,74 @@
       </c>
       <c r="R4" s="30"/>
     </row>
-    <row r="6" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:18" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="15" t="s">
+      <c r="D6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="L6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="M6" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="18" t="s">
+      <c r="N6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="15" t="s">
+      <c r="O6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="15" t="s">
+      <c r="P6" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="15" t="s">
+      <c r="Q6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="R6" s="15" t="s">
+      <c r="R6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="S6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T6" s="15" t="s">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
+        <v>45358</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="19">
-        <v>45358</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
       </c>
       <c r="F7">
         <v>138</v>
@@ -892,25 +879,22 @@
       <c r="Q7">
         <v>0.7239130434782608</v>
       </c>
-      <c r="R7" s="20">
+      <c r="R7" s="16">
         <v>0.44801859099804303</v>
       </c>
-      <c r="S7">
-        <v>31.594166742266165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="19">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
         <v>45358</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F8">
         <v>138</v>
@@ -948,25 +932,22 @@
       <c r="Q8">
         <v>0.42228260869565215</v>
       </c>
-      <c r="R8" s="20">
+      <c r="R8" s="16">
         <v>0.45616438356164385</v>
       </c>
-      <c r="S8">
-        <v>24.092912262995558</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="19">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
         <v>45358</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F9">
         <v>112</v>
@@ -1004,25 +985,22 @@
       <c r="Q9">
         <v>0.44598214285714288</v>
       </c>
-      <c r="R9" s="20">
+      <c r="R9" s="16">
         <v>0.43434782608695649</v>
       </c>
-      <c r="S9">
-        <v>21.665920121564003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="19">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
         <v>45358</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F10">
         <v>146</v>
@@ -1060,25 +1038,22 @@
       <c r="Q10">
         <v>0.45616438356164385</v>
       </c>
-      <c r="R10" s="20">
+      <c r="R10" s="16">
         <v>0.7239130434782608</v>
       </c>
-      <c r="S10">
-        <v>17.790075297106053</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="19">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
         <v>45358</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F11">
         <v>138</v>
@@ -1116,25 +1091,22 @@
       <c r="Q11">
         <v>0.43434782608695649</v>
       </c>
-      <c r="R11" s="20">
+      <c r="R11" s="16">
         <v>0.40500000000000003</v>
       </c>
-      <c r="S11">
-        <v>16.011067767395449</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="19">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="15">
         <v>45358</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F12">
         <v>146</v>
@@ -1172,25 +1144,22 @@
       <c r="Q12">
         <v>0.44801859099804303</v>
       </c>
-      <c r="R12" s="20">
+      <c r="R12" s="16">
         <v>0.41366459627329188</v>
       </c>
-      <c r="S12">
-        <v>15.419463848317156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="19">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="15">
         <v>45358</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F13">
         <v>148</v>
@@ -1228,25 +1197,22 @@
       <c r="Q13">
         <v>0.40500000000000003</v>
       </c>
-      <c r="R13" s="20">
+      <c r="R13" s="16">
         <v>0.42228260869565215</v>
       </c>
-      <c r="S13">
-        <v>13.915279415767035</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="19">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="15">
         <v>45358</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F14">
         <v>138</v>
@@ -1284,25 +1250,22 @@
       <c r="Q14">
         <v>0.41366459627329188</v>
       </c>
-      <c r="R14" s="20">
+      <c r="R14" s="16">
         <v>0.44598214285714288</v>
       </c>
-      <c r="S14">
-        <v>13.252647062635271</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="19">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="15">
         <v>45358</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F15">
         <v>46.5</v>
@@ -1340,28 +1303,22 @@
       <c r="Q15">
         <v>4.6172145110728077E-2</v>
       </c>
-      <c r="R15" s="20">
+      <c r="R15" s="16">
         <v>0.84375</v>
       </c>
-      <c r="S15">
-        <v>10.73578125</v>
-      </c>
-      <c r="T15">
-        <v>38.957747437176813</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="19">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="15">
         <v>45358</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F16">
         <v>32.5</v>
@@ -1399,28 +1356,22 @@
       <c r="Q16">
         <v>0.19222307901660166</v>
       </c>
-      <c r="R16" s="20">
+      <c r="R16" s="16">
         <v>0.72391304347826091</v>
       </c>
-      <c r="S16">
-        <v>6.3911718750000004</v>
-      </c>
-      <c r="T16">
-        <v>23.192132359611723</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17" s="19">
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="15">
         <v>45358</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F17">
         <v>46.5</v>
@@ -1458,28 +1409,22 @@
       <c r="Q17">
         <v>0.3435871460683218</v>
       </c>
-      <c r="R17" s="20">
+      <c r="R17" s="16">
         <v>0.67500000000000004</v>
       </c>
-      <c r="S17">
-        <v>6.3911718749999995</v>
-      </c>
-      <c r="T17">
-        <v>23.192132359611723</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="19">
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="15">
         <v>45358</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F18">
         <v>48.5</v>
@@ -1517,28 +1462,22 @@
       <c r="Q18">
         <v>0.17208508930363237</v>
       </c>
-      <c r="R18" s="20">
+      <c r="R18" s="16">
         <v>0.6272260273972603</v>
       </c>
-      <c r="S18">
-        <v>5.9489062500000003</v>
-      </c>
-      <c r="T18">
-        <v>21.587249387644018</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="19">
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="15">
         <v>45358</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F19">
         <v>56.5</v>
@@ -1576,28 +1515,22 @@
       <c r="Q19">
         <v>7.8662795972058414E-2</v>
       </c>
-      <c r="R19" s="20">
+      <c r="R19" s="16">
         <v>0.60326086956521752</v>
       </c>
-      <c r="S19">
-        <v>6.5385937500000004</v>
-      </c>
-      <c r="T19">
-        <v>23.727093350267626</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="19">
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="15">
         <v>45358</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F20">
         <v>48.5</v>
@@ -1635,28 +1568,22 @@
       <c r="Q20">
         <v>0.2339955849889625</v>
       </c>
-      <c r="R20" s="20">
+      <c r="R20" s="16">
         <v>0.5702054794520548</v>
       </c>
-      <c r="S20">
-        <v>6.1281250000000007</v>
-      </c>
-      <c r="T20">
-        <v>22.237594121382568</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19">
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="15">
         <v>45358</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F21">
         <v>32.5</v>
@@ -1694,28 +1621,22 @@
       <c r="Q21">
         <v>0.5586727751065953</v>
       </c>
-      <c r="R21" s="20">
+      <c r="R21" s="16">
         <v>0.65942028985507251</v>
       </c>
-      <c r="S21">
-        <v>11.280208333333334</v>
-      </c>
-      <c r="T21">
-        <v>40.933351477214309</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19">
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="15">
         <v>45358</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F22">
         <v>37.5</v>
@@ -1753,28 +1674,22 @@
       <c r="Q22">
         <v>0.24829901115848679</v>
       </c>
-      <c r="R22" s="20">
+      <c r="R22" s="16">
         <v>0.57065217391304346</v>
       </c>
-      <c r="S22">
-        <v>9.76171875</v>
-      </c>
-      <c r="T22">
-        <v>35.423092624512385</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="19">
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="15">
         <v>45358</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F23">
         <v>32.5</v>
@@ -1812,28 +1727,22 @@
       <c r="Q23">
         <v>1.370208881429738</v>
       </c>
-      <c r="R23" s="20">
+      <c r="R23" s="16">
         <v>0.57665903890160186</v>
       </c>
-      <c r="S23">
-        <v>11.460197368421053</v>
-      </c>
-      <c r="T23">
-        <v>41.586491403142716</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="19">
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" s="15">
         <v>45358</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F24">
         <v>37.5</v>
@@ -1871,28 +1780,22 @@
       <c r="Q24">
         <v>0.28846502766941851</v>
       </c>
-      <c r="R24" s="20">
+      <c r="R24" s="16">
         <v>0.57065217391304346</v>
       </c>
-      <c r="S24">
-        <v>11.3408203125</v>
-      </c>
-      <c r="T24">
-        <v>41.153298784359976</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="19">
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" s="15">
         <v>45358</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F25">
         <v>37.5</v>
@@ -1930,28 +1833,22 @@
       <c r="Q25">
         <v>9.2851310895400538E-2</v>
       </c>
-      <c r="R25" s="20">
+      <c r="R25" s="16">
         <v>0.79891304347826098</v>
       </c>
-      <c r="S25">
-        <v>20.442187500000003</v>
-      </c>
-      <c r="T25">
-        <v>74.180123378390647</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="19">
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" s="15">
         <v>45358</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E26" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F26">
         <v>48.5</v>
@@ -1989,28 +1886,22 @@
       <c r="Q26">
         <v>2.1778421633554088</v>
       </c>
-      <c r="R26" s="20">
+      <c r="R26" s="16">
         <v>0.50660024906600232</v>
       </c>
-      <c r="S26">
-        <v>13.820028409090908</v>
-      </c>
-      <c r="T26">
-        <v>50.149790108285977</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="19">
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" s="15">
         <v>45358</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F27">
         <v>56.5</v>
@@ -2048,28 +1939,22 @@
       <c r="Q27">
         <v>0.93568561190238597</v>
       </c>
-      <c r="R27" s="20">
+      <c r="R27" s="16">
         <v>0.49130434782608695</v>
       </c>
-      <c r="S27">
-        <v>12.668359375</v>
-      </c>
-      <c r="T27">
-        <v>45.970640932595487</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="19">
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" s="15">
         <v>45358</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F28">
         <v>56.5</v>
@@ -2107,28 +1992,22 @@
       <c r="Q28">
         <v>0.47084221627506134</v>
       </c>
-      <c r="R28" s="20">
+      <c r="R28" s="16">
         <v>0.4913043478260869</v>
       </c>
-      <c r="S28">
-        <v>21.249296875000002</v>
-      </c>
-      <c r="T28">
-        <v>77.10894266533613</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="19">
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" s="15">
         <v>45358</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E29" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F29">
         <v>58.5</v>
@@ -2166,28 +2045,22 @@
       <c r="Q29">
         <v>1.7740153098279887</v>
       </c>
-      <c r="R29" s="20">
+      <c r="R29" s="16">
         <v>0.87228860294117649</v>
       </c>
-      <c r="S29">
-        <v>213.21972656250003</v>
-      </c>
-      <c r="T29">
-        <v>773.72666810305736</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A30" s="19">
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30" s="15">
         <v>45358</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E30" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F30">
         <v>56.5</v>
@@ -2225,28 +2098,22 @@
       <c r="Q30">
         <v>0.34232400435453147</v>
       </c>
-      <c r="R30" s="20">
+      <c r="R30" s="16">
         <v>0.56304347826086953</v>
       </c>
-      <c r="S30">
-        <v>8.8525390625</v>
-      </c>
-      <c r="T30">
-        <v>32.123883017327408</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" s="19">
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31" s="15">
         <v>45358</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E31" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F31">
         <v>46.5</v>
@@ -2284,28 +2151,22 @@
       <c r="Q31">
         <v>8.4362998578729323E-2</v>
       </c>
-      <c r="R31" s="20">
+      <c r="R31" s="16">
         <v>0.56250000000000011</v>
       </c>
-      <c r="S31">
-        <v>6.5385937500000004</v>
-      </c>
-      <c r="T31">
-        <v>23.727093350267626</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A32" s="19">
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" s="15">
         <v>45358</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E32" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F32">
         <v>56.5</v>
@@ -2343,28 +2204,22 @@
       <c r="Q32">
         <v>0.19518692321014741</v>
       </c>
-      <c r="R32" s="20">
+      <c r="R32" s="16">
         <v>0.55298913043478259</v>
       </c>
-      <c r="S32">
-        <v>4.9574218750000005</v>
-      </c>
-      <c r="T32">
-        <v>17.989374489703348</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A33" s="19">
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A33" s="15">
         <v>45358</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F33">
         <v>56.5</v>
@@ -2402,28 +2257,22 @@
       <c r="Q33">
         <v>0.14744927273277089</v>
       </c>
-      <c r="R33" s="20">
+      <c r="R33" s="16">
         <v>0.54293478260869565</v>
       </c>
-      <c r="S33">
-        <v>5.5153125000000003</v>
-      </c>
-      <c r="T33">
-        <v>20.013834709244311</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A34" s="19">
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34" s="15">
         <v>45358</v>
       </c>
       <c r="C34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" t="s">
         <v>31</v>
       </c>
-      <c r="D34" t="s">
-        <v>34</v>
-      </c>
       <c r="E34" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F34">
         <v>56.5</v>
@@ -2461,28 +2310,22 @@
       <c r="Q34">
         <v>0.56221990383743081</v>
       </c>
-      <c r="R34" s="20">
+      <c r="R34" s="16">
         <v>0.48260869565217385</v>
       </c>
-      <c r="S34">
-        <v>5.489296875</v>
-      </c>
-      <c r="T34">
-        <v>19.919429828540327</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A35" s="19">
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A35" s="15">
         <v>45358</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D35" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E35" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F35">
         <v>32.5</v>
@@ -2520,28 +2363,22 @@
       <c r="Q35">
         <v>0.29764583144334572</v>
       </c>
-      <c r="R35" s="20">
+      <c r="R35" s="16">
         <v>0.46920289855072472</v>
       </c>
-      <c r="S35">
-        <v>4.2761979166666668</v>
-      </c>
-      <c r="T35">
-        <v>15.517365206084252</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" s="19">
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A36" s="15">
         <v>45358</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D36" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E36" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F36">
         <v>52.5</v>
@@ -2579,28 +2416,22 @@
       <c r="Q36">
         <v>0.41303411049623517</v>
       </c>
-      <c r="R36" s="20">
+      <c r="R36" s="16">
         <v>0.46901408450704224</v>
       </c>
-      <c r="S36">
-        <v>5.9315625000000001</v>
-      </c>
-      <c r="T36">
-        <v>21.524312800508028</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="19">
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A37" s="15">
         <v>45358</v>
       </c>
       <c r="C37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" t="s">
         <v>31</v>
       </c>
-      <c r="D37" t="s">
-        <v>34</v>
-      </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F37">
         <v>46.5</v>
@@ -2638,28 +2469,22 @@
       <c r="Q37">
         <v>0.65281557752981134</v>
       </c>
-      <c r="R37" s="20">
+      <c r="R37" s="16">
         <v>0.49736842105263163</v>
       </c>
-      <c r="S37">
-        <v>4.7092845394736838</v>
-      </c>
-      <c r="T37">
-        <v>17.088939633398113</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="19">
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A38" s="15">
         <v>45358</v>
       </c>
       <c r="C38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" t="s">
         <v>31</v>
       </c>
-      <c r="D38" t="s">
-        <v>34</v>
-      </c>
       <c r="E38" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F38">
         <v>46.5</v>
@@ -2697,28 +2522,22 @@
       <c r="Q38">
         <v>0.41866180630582345</v>
       </c>
-      <c r="R38" s="20">
+      <c r="R38" s="16">
         <v>0.41249999999999998</v>
       </c>
-      <c r="S38">
-        <v>3.9659375000000003</v>
-      </c>
-      <c r="T38">
-        <v>14.391499591762681</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="19">
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A39" s="15">
         <v>45358</v>
       </c>
       <c r="C39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" t="s">
         <v>31</v>
       </c>
-      <c r="D39" t="s">
-        <v>34</v>
-      </c>
       <c r="E39" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F39">
         <v>46.5</v>
@@ -2756,28 +2575,22 @@
       <c r="Q39">
         <v>3.7342375034019777E-2</v>
       </c>
-      <c r="R39" s="20">
+      <c r="R39" s="16">
         <v>0.45000000000000007</v>
       </c>
-      <c r="S39">
-        <v>4.6307812500000001</v>
-      </c>
-      <c r="T39">
-        <v>16.804068765308902</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="19">
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A40" s="15">
         <v>45358</v>
       </c>
       <c r="C40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" t="s">
         <v>31</v>
       </c>
-      <c r="D40" t="s">
-        <v>34</v>
-      </c>
       <c r="E40" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F40">
         <v>46.5</v>
@@ -2815,28 +2628,22 @@
       <c r="Q40">
         <v>0.23720100396141403</v>
       </c>
-      <c r="R40" s="20">
+      <c r="R40" s="16">
         <v>0.45</v>
       </c>
-      <c r="S40">
-        <v>4.9025000000000007</v>
-      </c>
-      <c r="T40">
-        <v>17.790075297106053</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="19">
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A41" s="15">
         <v>45358</v>
       </c>
       <c r="C41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" t="s">
         <v>31</v>
       </c>
-      <c r="D41" t="s">
-        <v>34</v>
-      </c>
       <c r="E41" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F41">
         <v>56.5</v>
@@ -2874,28 +2681,22 @@
       <c r="Q41">
         <v>0.33176086364873453</v>
       </c>
-      <c r="R41" s="20">
+      <c r="R41" s="16">
         <v>0.4826086956521739</v>
       </c>
-      <c r="S41">
-        <v>4.9024999999999999</v>
-      </c>
-      <c r="T41">
-        <v>17.790075297106053</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="19">
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A42" s="15">
         <v>45358</v>
       </c>
       <c r="C42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" t="s">
         <v>31</v>
       </c>
-      <c r="D42" t="s">
-        <v>34</v>
-      </c>
       <c r="E42" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F42">
         <v>82.5</v>
@@ -2933,28 +2734,22 @@
       <c r="Q42">
         <v>9.7160482627233966E-2</v>
       </c>
-      <c r="R42" s="20">
+      <c r="R42" s="16">
         <v>0.44598214285714288</v>
       </c>
-      <c r="S42">
-        <v>5.9705859375000001</v>
-      </c>
-      <c r="T42">
-        <v>21.665920121564003</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="19">
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A43" s="15">
         <v>45358</v>
       </c>
       <c r="C43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" t="s">
         <v>31</v>
       </c>
-      <c r="D43" t="s">
-        <v>34</v>
-      </c>
       <c r="E43" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F43">
         <v>56.5</v>
@@ -2992,28 +2787,22 @@
       <c r="Q43">
         <v>0.45643200580604198</v>
       </c>
-      <c r="R43" s="20">
+      <c r="R43" s="16">
         <v>0.54293478260869554</v>
       </c>
-      <c r="S43">
-        <v>8.536376953125</v>
-      </c>
-      <c r="T43">
-        <v>30.976601480994287</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="19">
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A44" s="15">
         <v>45358</v>
       </c>
       <c r="C44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" t="s">
         <v>31</v>
       </c>
-      <c r="D44" t="s">
-        <v>34</v>
-      </c>
       <c r="E44" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F44">
         <v>56.5</v>
@@ -3051,28 +2840,22 @@
       <c r="Q44">
         <v>4.3774002842541355E-2</v>
       </c>
-      <c r="R44" s="20">
+      <c r="R44" s="16">
         <v>0.7239130434782608</v>
       </c>
-      <c r="S44">
-        <v>8.7325781249999999</v>
-      </c>
-      <c r="T44">
-        <v>31.688571622970155</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="19">
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A45" s="15">
         <v>45358</v>
       </c>
       <c r="C45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" t="s">
         <v>31</v>
       </c>
-      <c r="D45" t="s">
-        <v>34</v>
-      </c>
       <c r="E45" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F45">
         <v>32.5</v>
@@ -3110,28 +2893,22 @@
       <c r="Q45">
         <v>1.1173455502131906</v>
       </c>
-      <c r="R45" s="20">
+      <c r="R45" s="16">
         <v>0.63405797101449279</v>
       </c>
-      <c r="S45">
-        <v>10.846354166666666</v>
-      </c>
-      <c r="T45">
-        <v>39.358991805013758</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="19">
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A46" s="15">
         <v>45358</v>
       </c>
       <c r="C46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" t="s">
         <v>31</v>
       </c>
-      <c r="D46" t="s">
-        <v>34</v>
-      </c>
       <c r="E46" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F46">
         <v>32.5</v>
@@ -3169,28 +2946,22 @@
       <c r="Q46">
         <v>0.86539508300825563</v>
       </c>
-      <c r="R46" s="20">
+      <c r="R46" s="16">
         <v>0.64673913043478259</v>
       </c>
-      <c r="S46">
-        <v>12.852929687500001</v>
-      </c>
-      <c r="T46">
-        <v>46.640405288941309</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="19">
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A47" s="15">
         <v>45358</v>
       </c>
       <c r="C47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" t="s">
         <v>31</v>
       </c>
-      <c r="D47" t="s">
-        <v>34</v>
-      </c>
       <c r="E47" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F47">
         <v>37.5</v>
@@ -3228,28 +2999,22 @@
       <c r="Q47">
         <v>0.43269754150412781</v>
       </c>
-      <c r="R47" s="20">
+      <c r="R47" s="16">
         <v>0.60869565217391297</v>
       </c>
-      <c r="S47">
-        <v>12.096874999999999</v>
-      </c>
-      <c r="T47">
-        <v>43.896852036650643</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="19">
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A48" s="15">
         <v>45358</v>
       </c>
       <c r="C48" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" t="s">
         <v>31</v>
       </c>
-      <c r="D48" t="s">
-        <v>34</v>
-      </c>
       <c r="E48" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F48">
         <v>37.5</v>
@@ -3287,28 +3052,22 @@
       <c r="Q48">
         <v>9.3894584051528632E-2</v>
       </c>
-      <c r="R48" s="20">
+      <c r="R48" s="16">
         <v>0.39945652173913043</v>
       </c>
-      <c r="S48">
-        <v>10.3359375</v>
-      </c>
-      <c r="T48">
-        <v>37.506803955366053</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="19">
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A49" s="15">
         <v>45358</v>
       </c>
       <c r="C49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" t="s">
         <v>31</v>
       </c>
-      <c r="D49" t="s">
-        <v>34</v>
-      </c>
       <c r="E49" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F49">
         <v>37.5</v>
@@ -3346,28 +3105,22 @@
       <c r="Q49">
         <v>0</v>
       </c>
-      <c r="R49" s="20" t="e">
+      <c r="R49" s="16" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="S49" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T49" t="e">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="19">
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A50" s="15">
         <v>45358</v>
       </c>
       <c r="C50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" t="s">
         <v>31</v>
       </c>
-      <c r="D50" t="s">
-        <v>34</v>
-      </c>
       <c r="E50" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F50">
         <v>48.5</v>
@@ -3405,28 +3158,22 @@
       <c r="Q50">
         <v>2.3758278145695368</v>
       </c>
-      <c r="R50" s="20">
+      <c r="R50" s="16">
         <v>0.41438356164383555</v>
       </c>
-      <c r="S50">
-        <v>11.304361979166666</v>
-      </c>
-      <c r="T50">
-        <v>41.020999652242281</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="19">
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A51" s="15">
         <v>45358</v>
       </c>
       <c r="C51" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" t="s">
         <v>31</v>
       </c>
-      <c r="D51" t="s">
-        <v>34</v>
-      </c>
       <c r="E51" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F51">
         <v>56.5</v>
@@ -3464,28 +3211,22 @@
       <c r="Q51">
         <v>1.0292541730926246</v>
       </c>
-      <c r="R51" s="20">
+      <c r="R51" s="16">
         <v>0.47826086956521735</v>
       </c>
-      <c r="S51">
-        <v>12.33203125</v>
-      </c>
-      <c r="T51">
-        <v>44.750181438809761</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="19">
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A52" s="15">
         <v>45358</v>
       </c>
       <c r="C52" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" t="s">
         <v>31</v>
       </c>
-      <c r="D52" t="s">
-        <v>34</v>
-      </c>
       <c r="E52" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F52">
         <v>56.5</v>
@@ -3523,28 +3264,22 @@
       <c r="Q52">
         <v>0.47084221627506134</v>
       </c>
-      <c r="R52" s="20">
+      <c r="R52" s="16">
         <v>0.63768115942028969</v>
       </c>
-      <c r="S52">
-        <v>27.580208333333331</v>
-      </c>
-      <c r="T52">
-        <v>100.08240345943331</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="19">
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A53" s="15">
         <v>45358</v>
       </c>
       <c r="C53" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" t="s">
         <v>31</v>
       </c>
-      <c r="D53" t="s">
-        <v>34</v>
-      </c>
       <c r="E53" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F53">
         <v>58.5</v>
@@ -3582,28 +3317,22 @@
       <c r="Q53">
         <v>1.7740153098279887</v>
       </c>
-      <c r="R53" s="20">
+      <c r="R53" s="16">
         <v>0.87228860294117649</v>
       </c>
-      <c r="S53">
-        <v>213.21972656250003</v>
-      </c>
-      <c r="T53">
-        <v>773.72666810305736</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A54" s="19">
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A54" s="15">
         <v>45358</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D54" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E54" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F54">
         <v>52.5</v>
@@ -3641,28 +3370,22 @@
       <c r="Q54">
         <v>0.45892678944026133</v>
       </c>
-      <c r="R54" s="20">
+      <c r="R54" s="16">
         <v>0.46901408450704218</v>
       </c>
-      <c r="S54">
-        <v>5.9315625000000001</v>
-      </c>
-      <c r="T54">
-        <v>21.524312800508028</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A55" s="19">
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A55" s="15">
         <v>45358</v>
       </c>
       <c r="C55" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" t="s">
         <v>31</v>
       </c>
-      <c r="D55" t="s">
-        <v>34</v>
-      </c>
       <c r="E55" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F55">
         <v>37.5</v>
@@ -3700,28 +3423,22 @@
       <c r="Q55">
         <v>0.56221990383743081</v>
       </c>
-      <c r="R55" s="20">
+      <c r="R55" s="16">
         <v>0.46131713554987214</v>
       </c>
-      <c r="S55">
-        <v>4.2043290441176469</v>
-      </c>
-      <c r="T55">
-        <v>15.256569152200477</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A56" s="19">
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A56" s="15">
         <v>45358</v>
       </c>
       <c r="C56" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D56" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E56" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F56">
         <v>56.5</v>
@@ -3759,28 +3476,22 @@
       <c r="Q56">
         <v>0.89199854848952198</v>
       </c>
-      <c r="R56" s="20">
+      <c r="R56" s="16">
         <v>0.45847826086956522</v>
       </c>
-      <c r="S56">
-        <v>5.6349843750000002</v>
-      </c>
-      <c r="T56">
-        <v>20.448097160482629</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A57" s="19">
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A57" s="15">
         <v>45358</v>
       </c>
       <c r="C57" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D57" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E57" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F57">
         <v>37.5</v>
@@ -3818,28 +3529,22 @@
       <c r="Q57">
         <v>0.13228703619704255</v>
       </c>
-      <c r="R57" s="20">
+      <c r="R57" s="16">
         <v>0.45244565217391303</v>
       </c>
-      <c r="S57">
-        <v>4.1234765624999996</v>
-      </c>
-      <c r="T57">
-        <v>14.963173591581238</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A58" s="19">
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A58" s="15">
         <v>45358</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D58" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E58" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F58">
         <v>46.5</v>
@@ -3877,28 +3582,22 @@
       <c r="Q58">
         <v>3.7342375034019777E-2</v>
       </c>
-      <c r="R58" s="20">
+      <c r="R58" s="16">
         <v>0.45000000000000007</v>
       </c>
-      <c r="S58">
-        <v>4.6307812500000001</v>
-      </c>
-      <c r="T58">
-        <v>16.804068765308902</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A59" s="19">
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A59" s="15">
         <v>45358</v>
       </c>
       <c r="C59" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D59" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E59" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F59">
         <v>46.5</v>
@@ -3936,28 +3635,22 @@
       <c r="Q59">
         <v>0.28699083734010705</v>
       </c>
-      <c r="R59" s="20">
+      <c r="R59" s="16">
         <v>0.45</v>
       </c>
-      <c r="S59">
-        <v>5.9315624999999992</v>
-      </c>
-      <c r="T59">
-        <v>21.524312800508028</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A60" s="19">
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A60" s="15">
         <v>45358</v>
       </c>
       <c r="C60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" t="s">
         <v>31</v>
       </c>
-      <c r="D60" t="s">
-        <v>34</v>
-      </c>
       <c r="E60" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F60">
         <v>46.5</v>
@@ -3995,28 +3688,22 @@
       <c r="Q60">
         <v>0.56221990383743081</v>
       </c>
-      <c r="R60" s="20">
+      <c r="R60" s="16">
         <v>0.45</v>
       </c>
-      <c r="S60">
-        <v>5.9315625000000001</v>
-      </c>
-      <c r="T60">
-        <v>21.524312800508028</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A61" s="19">
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A61" s="15">
         <v>45358</v>
       </c>
       <c r="C61" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D61" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E61" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F61">
         <v>46.5</v>
@@ -4054,28 +3741,22 @@
       <c r="Q61">
         <v>0.14349541867005353</v>
       </c>
-      <c r="R61" s="20">
+      <c r="R61" s="16">
         <v>0.45</v>
       </c>
-      <c r="S61">
-        <v>5.9315624999999992</v>
-      </c>
-      <c r="T61">
-        <v>21.524312800508028</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A62" s="19">
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A62" s="15">
         <v>45358</v>
       </c>
       <c r="C62" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D62" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E62" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F62">
         <v>82.5</v>
@@ -4113,28 +3794,22 @@
       <c r="Q62">
         <v>9.7160482627233966E-2</v>
       </c>
-      <c r="R62" s="20">
+      <c r="R62" s="16">
         <v>0.44598214285714288</v>
       </c>
-      <c r="S62">
-        <v>5.9705859375000001</v>
-      </c>
-      <c r="T62">
-        <v>21.665920121564003</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A63" s="19">
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A63" s="15">
         <v>45358</v>
       </c>
       <c r="C63" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D63" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E63" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F63">
         <v>56.5</v>
@@ -4172,28 +3847,22 @@
       <c r="Q63">
         <v>1.0257983307629501</v>
       </c>
-      <c r="R63" s="20">
+      <c r="R63" s="16">
         <v>0.44064272211720229</v>
       </c>
-      <c r="S63">
-        <v>5.4157744565217385</v>
-      </c>
-      <c r="T63">
-        <v>19.652633426550807</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A64" s="19">
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A64" s="15">
         <v>45358</v>
       </c>
       <c r="C64" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64" t="s">
         <v>31</v>
       </c>
-      <c r="D64" t="s">
-        <v>34</v>
-      </c>
       <c r="E64" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F64">
         <v>32.5</v>
@@ -4231,28 +3900,22 @@
       <c r="Q64">
         <v>0.36378934954186698</v>
       </c>
-      <c r="R64" s="20">
+      <c r="R64" s="16">
         <v>0.43873517786561272</v>
       </c>
-      <c r="S64">
-        <v>3.9985227272727273</v>
-      </c>
-      <c r="T64">
-        <v>14.509744088806052</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A65" s="19">
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A65" s="15">
         <v>45358</v>
       </c>
       <c r="C65" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D65" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E65" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F65">
         <v>32.5</v>
@@ -4290,28 +3953,22 @@
       <c r="Q65">
         <v>0.33071759049260635</v>
       </c>
-      <c r="R65" s="20">
+      <c r="R65" s="16">
         <v>0.42228260869565226</v>
       </c>
-      <c r="S65">
-        <v>3.8485781250000004</v>
-      </c>
-      <c r="T65">
-        <v>13.965628685475826</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A66" s="19">
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A66" s="15">
         <v>45358</v>
       </c>
       <c r="C66" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D66" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E66" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F66">
         <v>37.5</v>
@@ -4349,28 +4006,22 @@
       <c r="Q66">
         <v>0.52914814478817018</v>
       </c>
-      <c r="R66" s="20">
+      <c r="R66" s="16">
         <v>0.41474184782608692</v>
       </c>
-      <c r="S66">
-        <v>3.7798535156249997</v>
-      </c>
-      <c r="T66">
-        <v>13.716242458949468</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A67" s="19">
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A67" s="15">
         <v>45358</v>
       </c>
       <c r="C67" t="s">
+        <v>28</v>
+      </c>
+      <c r="D67" t="s">
         <v>31</v>
       </c>
-      <c r="D67" t="s">
-        <v>34</v>
-      </c>
       <c r="E67" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F67">
         <v>56.5</v>
@@ -4408,28 +4059,22 @@
       <c r="Q67">
         <v>0.56221990383743081</v>
       </c>
-      <c r="R67" s="20">
+      <c r="R67" s="16">
         <v>0.41366459627329188</v>
       </c>
-      <c r="S67">
-        <v>5.0841964285714285</v>
-      </c>
-      <c r="T67">
-        <v>18.449410971864026</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A68" s="19">
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A68" s="15">
         <v>45358</v>
       </c>
       <c r="C68" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D68" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E68" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F68">
         <v>56.5</v>
@@ -4467,28 +4112,22 @@
       <c r="Q68">
         <v>0.11799419395808762</v>
       </c>
-      <c r="R68" s="20">
+      <c r="R68" s="16">
         <v>0.40217391304347838</v>
       </c>
-      <c r="S68">
-        <v>4.3590625000000003</v>
-      </c>
-      <c r="T68">
-        <v>15.818062233511752</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A69" s="19">
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A69" s="15">
         <v>45358</v>
       </c>
       <c r="C69" t="s">
+        <v>28</v>
+      </c>
+      <c r="D69" t="s">
         <v>31</v>
       </c>
-      <c r="D69" t="s">
-        <v>34</v>
-      </c>
       <c r="E69" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F69">
         <v>56.5</v>
@@ -4526,28 +4165,22 @@
       <c r="Q69">
         <v>0.56221990383743081</v>
       </c>
-      <c r="R69" s="20">
+      <c r="R69" s="16">
         <v>0.40217391304347838</v>
       </c>
-      <c r="S69">
-        <v>4.3590625000000003</v>
-      </c>
-      <c r="T69">
-        <v>15.818062233511752</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A70" s="19">
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A70" s="15">
         <v>45358</v>
       </c>
       <c r="C70" t="s">
+        <v>28</v>
+      </c>
+      <c r="D70" t="s">
         <v>31</v>
       </c>
-      <c r="D70" t="s">
-        <v>34</v>
-      </c>
       <c r="E70" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F70">
         <v>48.5</v>
@@ -4585,28 +4218,22 @@
       <c r="Q70">
         <v>0.56221990383743081</v>
       </c>
-      <c r="R70" s="20">
+      <c r="R70" s="16">
         <v>0.38013698630136994</v>
       </c>
-      <c r="S70">
-        <v>4.3590625000000003</v>
-      </c>
-      <c r="T70">
-        <v>15.818062233511752</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="19">
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A71" s="15">
         <v>45358</v>
       </c>
       <c r="C71" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D71" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E71" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F71">
         <v>32.5</v>
@@ -4644,28 +4271,22 @@
       <c r="Q71">
         <v>0.68282228068583861</v>
       </c>
-      <c r="R71" s="20">
+      <c r="R71" s="16">
         <v>0.70553359683794481</v>
       </c>
-      <c r="S71">
-        <v>12.069034090909092</v>
-      </c>
-      <c r="T71">
-        <v>43.795823608488043</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="19">
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A72" s="15">
         <v>45358</v>
       </c>
       <c r="C72" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D72" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E72" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F72">
         <v>37.5</v>
@@ -4703,28 +4324,22 @@
       <c r="Q72">
         <v>0.24829901115848679</v>
       </c>
-      <c r="R72" s="20">
+      <c r="R72" s="16">
         <v>0.57065217391304346</v>
       </c>
-      <c r="S72">
-        <v>9.76171875</v>
-      </c>
-      <c r="T72">
-        <v>35.423092624512385</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="19">
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A73" s="15">
         <v>45358</v>
       </c>
       <c r="C73" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D73" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E73" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F73">
         <v>32.5</v>
@@ -4762,28 +4377,22 @@
       <c r="Q73">
         <v>0.93751133992561031</v>
       </c>
-      <c r="R73" s="20">
+      <c r="R73" s="16">
         <v>0.70234113712374568</v>
       </c>
-      <c r="S73">
-        <v>13.957932692307692</v>
-      </c>
-      <c r="T73">
-        <v>50.650213888443048</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="19">
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A74" s="15">
         <v>45358</v>
       </c>
       <c r="C74" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D74" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E74" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F74">
         <v>37.5</v>
@@ -4821,28 +4430,22 @@
       <c r="Q74">
         <v>0.50481379842148244</v>
       </c>
-      <c r="R74" s="20">
+      <c r="R74" s="16">
         <v>0.65217391304347816</v>
       </c>
-      <c r="S74">
-        <v>12.9609375</v>
-      </c>
-      <c r="T74">
-        <v>47.03234146783997</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="19">
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A75" s="15">
         <v>45358</v>
       </c>
       <c r="C75" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D75" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E75" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F75">
         <v>37.5</v>
@@ -4880,28 +4483,22 @@
       <c r="Q75">
         <v>9.2851310895400538E-2</v>
       </c>
-      <c r="R75" s="20">
+      <c r="R75" s="16">
         <v>0.39945652173913049</v>
       </c>
-      <c r="S75">
-        <v>10.221093750000001</v>
-      </c>
-      <c r="T75">
-        <v>37.090061689195323</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="19">
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A76" s="15">
         <v>45358</v>
       </c>
       <c r="C76" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D76" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E76" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F76">
         <v>48.5</v>
@@ -4939,28 +4536,22 @@
       <c r="Q76">
         <v>2.2768349889624728</v>
       </c>
-      <c r="R76" s="20">
+      <c r="R76" s="16">
         <v>0.4643835616438356</v>
       </c>
-      <c r="S76">
-        <v>12.668359375</v>
-      </c>
-      <c r="T76">
-        <v>45.970640932595487</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="19">
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A77" s="15">
         <v>45358</v>
       </c>
       <c r="C77" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D77" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E77" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F77">
         <v>56.5</v>
@@ -4998,28 +4589,22 @@
       <c r="Q77">
         <v>0.56141136714143158</v>
       </c>
-      <c r="R77" s="20">
+      <c r="R77" s="16">
         <v>0.4913043478260869</v>
       </c>
-      <c r="S77">
-        <v>12.668359375</v>
-      </c>
-      <c r="T77">
-        <v>45.970640932595479</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="19">
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A78" s="15">
         <v>45358</v>
       </c>
       <c r="C78" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D78" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E78" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F78">
         <v>56.5</v>
@@ -5057,28 +4642,22 @@
       <c r="Q78">
         <v>0.47084221627506134</v>
       </c>
-      <c r="R78" s="20">
+      <c r="R78" s="16">
         <v>0.4913043478260869</v>
       </c>
-      <c r="S78">
-        <v>21.249296875000002</v>
-      </c>
-      <c r="T78">
-        <v>77.10894266533613</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="19">
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A79" s="15">
         <v>45358</v>
       </c>
       <c r="C79" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D79" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E79" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F79">
         <v>58.5</v>
@@ -5116,25 +4695,13 @@
       <c r="Q79">
         <v>1.7740153098279887</v>
       </c>
-      <c r="R79" s="20">
+      <c r="R79" s="16">
         <v>0.89586397058823541</v>
       </c>
-      <c r="S79">
-        <v>218.98242187500003</v>
-      </c>
-      <c r="T79">
-        <v>794.63819967341033</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A6:T79" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="F. B. HESSIAN"/>
-        <filter val="N. HESSIAN"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:T70">
+  <autoFilter ref="A6:R79" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:R70">
       <sortCondition descending="1" ref="R6:R79"/>
     </sortState>
   </autoFilter>
